--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -220,7 +220,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -352,11 +352,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,68 +375,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,8 +405,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,11 +487,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,16 +517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,37 +540,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,127 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,41 +731,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,11 +779,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +802,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -833,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,16 +851,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,119 +869,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,7 +1029,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,8 +1393,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="18" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,10 +1408,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1419,40 +1428,40 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1466,10 +1475,10 @@
       <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1480,10 +1489,10 @@
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1497,10 +1506,10 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1514,10 +1523,10 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1525,13 +1534,13 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1542,10 +1551,10 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1559,10 +1568,10 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1573,10 +1582,10 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1587,10 +1596,10 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1604,10 +1613,10 @@
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1618,10 +1627,10 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1632,10 +1641,10 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1646,10 +1655,10 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1660,10 +1669,10 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1674,10 +1683,10 @@
       <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1688,10 +1697,10 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1702,10 +1711,10 @@
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="14"/>
@@ -1717,10 +1726,10 @@
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1731,10 +1740,10 @@
       <c r="C23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1750,7 +1759,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1763,17 +1772,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1906,7 +1916,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1955,7 +1965,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="9"/>
@@ -2048,7 +2058,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -2057,9 +2067,6 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2073,7 +2080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2082,6 +2089,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>模块</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>//input[@class='form-control applicantCertNo']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-取件方式选定</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'取件方式')]/following-sibling::div/div/span</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-窗口自取</t>
+  </si>
+  <si>
+    <t>//ul[@class='dropdown-list']/li[2]</t>
   </si>
   <si>
     <t>渔业船舶登记-取件信息选定</t>
@@ -389,9 +401,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +438,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,52 +506,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,53 +523,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,25 +552,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,31 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,121 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,17 +746,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,32 +811,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,35 +843,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,19 +863,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,112 +884,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,10 +1394,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1625,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>9</v>
@@ -1653,12 +1665,12 @@
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1667,7 +1679,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>9</v>
@@ -1680,71 +1692,99 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="8" t="s">
         <v>65</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1769,12 +1809,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1810,98 +1850,98 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1913,10 +1953,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1931,33 +1971,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1966,14 +2006,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1989,7 +2029,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2003,7 +2043,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2017,7 +2057,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2027,13 +2067,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2046,7 +2086,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2055,12 +2095,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2071,7 +2111,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2082,7 +2122,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2096,7 +2136,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2105,12 +2145,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2121,7 +2161,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -2130,12 +2170,12 @@
         <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>43</v>
@@ -2146,7 +2186,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
@@ -2157,7 +2197,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>43</v>
@@ -2166,9 +2206,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -2176,13 +2216,10 @@
       <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
@@ -2191,56 +2228,81 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>108</v>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="183">
   <si>
     <t>模块</t>
   </si>
@@ -136,15 +136,24 @@
     <t>//form[@class='form-horizontal clearfix js-form-popwin']/div[@class='gid col-md-12']</t>
   </si>
   <si>
+    <t>渔业船舶登记-办事指南下载点击</t>
+  </si>
+  <si>
+    <t>document_get</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>('btn btn_minwidth btn-success js-down')[0]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-办事指南下载验证</t>
+  </si>
+  <si>
     <t>渔业船舶登记-办事指南退出</t>
   </si>
   <si>
-    <t>document_get</t>
-  </si>
-  <si>
-    <t>className</t>
-  </si>
-  <si>
     <t>('btn btn_minwidth btn-default js-cancel')[0]</t>
   </si>
   <si>
@@ -187,12 +196,156 @@
     <t>//ul[@class='dropdown-list']/li[3]</t>
   </si>
   <si>
+    <t>渔业船舶登记-上传操作点击</t>
+  </si>
+  <si>
+    <t>//td[text()='企业名称预先核准通知书或者工商营业执照']/following-sibling::*//button[text()='上传']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-窗口最小化</t>
+  </si>
+  <si>
+    <t>minimize_window</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-附件上传点击</t>
+  </si>
+  <si>
+    <t>//span[@id='uploader']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-文件上传操作</t>
+  </si>
+  <si>
+    <t>upload_file</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-窗口最大化</t>
+  </si>
+  <si>
+    <t>maximize_window</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-文件上传确定点击</t>
+  </si>
+  <si>
+    <t>('btn btn_minwidth btn-default js-ok')[0]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-文件上传是否成功</t>
+  </si>
+  <si>
+    <t>//td[text()='企业名称预先核准通知书或者工商营业执照']/following-sibling::*//button[text()='已提交']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-材料复用按钮点击</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),' 材料复用')]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料名称点击</t>
+  </si>
+  <si>
+    <t>//h4[text()='材料复用']/parent::div/following-sibling::div[1]//td[text()='测试0131-1-4']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料下载点击</t>
+  </si>
+  <si>
+    <t>//h4[text()='材料复用']/parent::div/following-sibling::div[1]//a[text()='下载']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料下载验证</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料文件选择</t>
+  </si>
+  <si>
+    <t>//td[@class='jqgrid-cbox']/input</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料确定</t>
+  </si>
+  <si>
+    <t>//h4[text()='材料复用']/parent::div/following-sibling::div[2]//button[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-复用材料是否成功</t>
+  </si>
+  <si>
+    <t>//td[text()='测试0131-1-4']/following-sibling::*//button[text()='已提交']</t>
+  </si>
+  <si>
     <t>渔业船舶登记-常用语点击</t>
   </si>
   <si>
     <t>//button[contains(text(),'常用语')]</t>
   </si>
   <si>
+    <t>渔业船舶登记-常用语新增点击</t>
+  </si>
+  <si>
+    <t>//button[text()='新增']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增填入</t>
+  </si>
+  <si>
+    <t>//textarea[@placeholder='请填写常用语']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增确定</t>
+  </si>
+  <si>
+    <t>//h4[text()='新增个人常用语']/parent::div/following-sibling::div[2]//button[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增检测</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-message']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增成功确定</t>
+  </si>
+  <si>
+    <t>doc_get_len</t>
+  </si>
+  <si>
+    <t>('btn btn-success')</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增删除点击高亮</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>//td[text()='常用语新增test']/following-sibling::*//a[text()='删除']</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增删除点击</t>
+  </si>
+  <si>
+    <t>('js-removeDraft')</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增删除确定</t>
+  </si>
+  <si>
+    <t>('btn btn-primary')</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增删除检测</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语新增删除成功确定</t>
+  </si>
+  <si>
+    <t>//div[text()='删除数据成功']/parent::div/following-sibling::div//button[text()='确定']</t>
+  </si>
+  <si>
     <t>渔业船舶登记-常用语通过点击</t>
   </si>
   <si>
@@ -307,18 +460,60 @@
     <t>基本信息、办件材料、办理流程、中介服务、拓展信息栏目页面显示合理；</t>
   </si>
   <si>
-    <t>cnj_st_005_接件流程</t>
-  </si>
-  <si>
-    <t>渔业船舶登记-接件信息填入</t>
-  </si>
-  <si>
-    <t>填入证件号码、移动电话、取件信息、办理意见等；</t>
+    <t>cnj_st_005_身份信息填入</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-申请人的身份信息填入</t>
+  </si>
+  <si>
+    <t>填入证件号码、移动电话等；</t>
   </si>
   <si>
     <t>可以正常填入信息</t>
   </si>
   <si>
+    <t>cnj_st_006_取件操作</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-取件方式选择</t>
+  </si>
+  <si>
+    <t>选择窗口自取，不需要报销凭证</t>
+  </si>
+  <si>
+    <t>cnj_st_007_文件上传</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-办件材料上传</t>
+  </si>
+  <si>
+    <t>企业名称预先核准通知书或者工商营业执照的材料上传</t>
+  </si>
+  <si>
+    <t>cnj_st_008_材料复用</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-材料复用</t>
+  </si>
+  <si>
+    <t>cnj_st_009_常用语</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-常用语功能测试</t>
+  </si>
+  <si>
+    <t>测试是否可以正常添加删除常用语，最后选择的常用语是否可以正常展示在输入框</t>
+  </si>
+  <si>
+    <t>cnj_st_010_接件提交</t>
+  </si>
+  <si>
+    <t>渔业船舶登记-接件提交</t>
+  </si>
+  <si>
+    <t>提交接件信息，查看是否可以正常提交</t>
+  </si>
+  <si>
     <t>测试模块</t>
   </si>
   <si>
@@ -349,10 +544,25 @@
     <t>{"len":5}</t>
   </si>
   <si>
+    <t>{"file":"渔业船舶登记.doc"}</t>
+  </si>
+  <si>
     <t>460105199003072477</t>
   </si>
   <si>
     <t>{"len":1}</t>
+  </si>
+  <si>
+    <t>{"file":"图片2 - 副本.png"}</t>
+  </si>
+  <si>
+    <t>常用语新增test</t>
+  </si>
+  <si>
+    <t>{"text":"新增成功！"}</t>
+  </si>
+  <si>
+    <t>{"text":"删除数据成功"}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -363,10 +573,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -401,6 +611,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -409,7 +642,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,30 +655,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +686,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -475,9 +725,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,45 +746,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -552,7 +762,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,19 +852,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,79 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,25 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +953,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,21 +982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +1007,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -814,23 +1039,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,8 +1048,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,133 +1073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,10 +1604,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1615,68 +1825,62 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1685,106 +1889,446 @@
         <v>9</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="2:6">
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="2:6">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>69</v>
+      <c r="D50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1809,12 +2353,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1833,16 +2377,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="43.875" style="15" customWidth="1"/>
     <col min="5" max="5" width="41.75" style="15" customWidth="1"/>
@@ -1850,98 +2394,151 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>99</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" ht="27" spans="1:4">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1953,17 +2550,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
@@ -1971,33 +2568,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -2006,14 +2603,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -2029,7 +2626,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2043,7 +2640,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2057,7 +2654,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2067,13 +2664,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2086,7 +2683,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2095,12 +2692,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2111,7 +2708,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2122,7 +2719,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2136,7 +2733,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2145,12 +2742,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2159,150 +2756,473 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>110</v>
+      <c r="E14" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:5">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:5">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:5">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:6">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:6">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:5">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
   <si>
     <t>模块</t>
   </si>
@@ -133,7 +133,7 @@
     <t>渔业船舶登记-办事指南验证</t>
   </si>
   <si>
-    <t>//form[@class='form-horizontal clearfix js-form-popwin']/div[@class='gid col-md-12']</t>
+    <t>//div[@class='slimScrollDiv']/form[@class='form-horizontal clearfix js-form-popwin']/div[@class='gid col-md-12']</t>
   </si>
   <si>
     <t>渔业船舶登记-办事指南下载点击</t>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>460105199003072477</t>
+  </si>
+  <si>
+    <t>图片1.png</t>
   </si>
   <si>
     <t>{"len":1}</t>
@@ -573,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -619,23 +622,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,79 +644,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,12 +673,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -762,7 +765,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,19 +897,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,121 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,21 +956,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -982,17 +970,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,6 +998,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1036,11 +1022,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,6 +1045,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1061,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,19 +1076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,112 +1097,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1606,8 +1609,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2553,7 +2556,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2883,7 +2886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -2892,6 +2895,9 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2933,7 +2939,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
@@ -2986,7 +2992,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3026,7 +3032,7 @@
         <v>84</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3065,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3090,7 +3096,7 @@
         <v>94</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3148,7 +3154,7 @@
         <v>106</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3206,7 +3212,7 @@
         <v>116</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3222,7 +3228,7 @@
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -577,9 +577,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -614,21 +614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -636,30 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,10 +646,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,9 +689,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,6 +704,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -720,16 +726,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,8 +742,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +765,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,79 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,78 +946,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,17 +959,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,31 +1008,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1041,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,19 +1076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,112 +1097,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2555,8 +2555,8 @@
   <sheetPr/>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2748,7 +2748,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -2757,6 +2757,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2978,7 +2981,7 @@
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5">

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -576,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -621,74 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -696,7 +628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -720,15 +651,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,14 +749,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -765,7 +765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +801,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,13 +867,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,43 +909,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,97 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +956,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -978,66 +1026,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1045,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,19 +1076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,112 +1097,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,7 +1609,7 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2555,7 +2555,7 @@
   <sheetPr/>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>

--- a/run_entrance/test_suite/test_suite_cnj01接件.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj01接件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="187">
   <si>
     <t>模块</t>
   </si>
@@ -166,6 +166,12 @@
     <t>//input[@class='form-control applicantCertNo']</t>
   </si>
   <si>
+    <t>渔业船舶登记-移动电话</t>
+  </si>
+  <si>
+    <t>//input[@class='form-control mobilePhone']</t>
+  </si>
+  <si>
     <t>渔业船舶登记-取件方式选定</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
   </si>
   <si>
     <t>460105199003072477</t>
+  </si>
+  <si>
+    <t>18888888888</t>
   </si>
   <si>
     <t>图片1.png</t>
@@ -576,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -622,14 +631,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,14 +662,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,20 +685,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,22 +703,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,7 +731,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +753,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,7 +774,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +828,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,55 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,30 +894,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -885,13 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,25 +918,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,19 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,17 +971,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,21 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1018,6 +1029,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,17 +1065,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,19 +1085,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,112 +1106,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1607,10 +1616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A52:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1872,7 +1881,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>9</v>
@@ -1891,7 +1900,7 @@
       <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1900,12 +1909,12 @@
         <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1914,12 +1923,12 @@
         <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1942,7 +1951,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>9</v>
@@ -1951,33 +1960,39 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1989,17 +2004,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2008,10 +2017,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>72</v>
@@ -2022,7 +2031,7 @@
         <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>9</v>
@@ -2059,26 +2068,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2100,7 +2109,7 @@
         <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>9</v>
@@ -2114,7 +2123,7 @@
         <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>9</v>
@@ -2142,7 +2151,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>9</v>
@@ -2156,7 +2165,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>9</v>
@@ -2170,7 +2179,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>9</v>
@@ -2184,38 +2193,38 @@
         <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D43" s="19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>103</v>
@@ -2226,7 +2235,7 @@
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>41</v>
@@ -2240,78 +2249,77 @@
         <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>40</v>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="2:6">
+    <row r="49" spans="2:5">
       <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="2:6">
+      <c r="B50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>9</v>
@@ -2319,19 +2327,34 @@
       <c r="E50" s="24" t="s">
         <v>117</v>
       </c>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="24" t="s">
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="8" t="s">
         <v>120</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2356,12 +2379,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2383,7 +2406,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2397,151 +2420,151 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" ht="27" spans="1:4">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2553,10 +2576,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A52:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2571,33 +2594,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -2606,14 +2629,14 @@
         <v>7</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -2629,7 +2652,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -2643,7 +2666,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -2657,7 +2680,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -2667,13 +2690,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -2686,7 +2709,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>25</v>
@@ -2695,12 +2718,12 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -2711,7 +2734,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -2722,7 +2745,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2736,7 +2759,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2745,12 +2768,12 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2764,7 +2787,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -2773,12 +2796,12 @@
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2789,7 +2812,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
@@ -2798,12 +2821,12 @@
         <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -2811,10 +2834,13 @@
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>46</v>
@@ -2825,7 +2851,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -2836,7 +2862,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -2847,7 +2873,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -2858,7 +2884,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
@@ -2869,7 +2895,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
@@ -2880,7 +2906,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -2889,9 +2915,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
@@ -2899,13 +2925,10 @@
       <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
@@ -2913,13 +2936,13 @@
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="3">
-        <v>5</v>
+      <c r="D26" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -2928,12 +2951,12 @@
         <v>69</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
@@ -2941,13 +2964,13 @@
       <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>178</v>
+      <c r="F28" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
@@ -2955,11 +2978,13 @@
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
@@ -2969,9 +2994,9 @@
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" ht="14.25" spans="1:6">
+    <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
@@ -2980,13 +3005,10 @@
         <v>77</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" ht="14.25" spans="1:6">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
@@ -2994,24 +3016,28 @@
       <c r="C32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" s="14"/>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
@@ -3019,14 +3045,10 @@
       <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
+    </row>
+    <row r="35" ht="14.25" spans="1:6">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>46</v>
@@ -3034,11 +3056,12 @@
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E35" s="14"/>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -3048,13 +3071,13 @@
       <c r="C36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
@@ -3062,10 +3085,13 @@
       <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -3073,13 +3099,10 @@
       <c r="C38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
@@ -3087,10 +3110,13 @@
       <c r="C39" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="D39" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -3098,13 +3124,10 @@
       <c r="C40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>46</v>
@@ -3112,32 +3135,35 @@
       <c r="C41" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E41" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -3146,9 +3172,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -3156,24 +3182,24 @@
       <c r="C45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -3184,18 +3210,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>46</v>
@@ -3204,23 +3230,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:5">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" ht="14.25" spans="1:5">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>46</v>
@@ -3228,10 +3251,24 @@
       <c r="C51" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="1" t="s">
-        <v>183</v>
+      <c r="E51" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
